--- a/Algoritmo_Rota/Planilhas_Unitario/BCU/PLN_42_30.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/BCU/PLN_42_30.xlsx
@@ -454,7 +454,7 @@
         <v>7159</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2231452465057373</v>
+        <v>0.174738883972168</v>
       </c>
     </row>
   </sheetData>
